--- a/20170822Speech/house.xlsx
+++ b/20170822Speech/house.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>price</t>
   </si>
@@ -22,184 +22,169 @@
     <t>title</t>
   </si>
   <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>910</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>950</t>
-  </si>
-  <si>
-    <t>605</t>
-  </si>
-  <si>
-    <t>4300</t>
-  </si>
-  <si>
-    <t>245</t>
-  </si>
-  <si>
-    <t>2050</t>
-  </si>
-  <si>
-    <t>3250</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>298</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>795</t>
+    <t>295</t>
+  </si>
+  <si>
+    <t>735</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>448</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>710</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>215</t>
   </si>
   <si>
     <t>205</t>
   </si>
   <si>
-    <t>570</t>
-  </si>
-  <si>
-    <t>960</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>370</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>750</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>268</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>890</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>曹路户型精装修朝南急售!!!</t>
-  </si>
-  <si>
-    <t>享受宁静的下午 如果再相遇 我一定会记得你 业主买好浅水湾</t>
-  </si>
-  <si>
-    <t>精装83平 155万 婚房装修 机不可失!</t>
-  </si>
-  <si>
-    <t>海汇清波苑 65平123万 精装全配 小户型 大生活</t>
-  </si>
-  <si>
-    <t>苏州河景观房,半岛社区,环境绿化好,房东置换浅水湾复式房急售</t>
-  </si>
-  <si>
-    <t>新出房源!房东买好浅水湾凯悦名城降60万急售!南北通全明户型</t>
-  </si>
-  <si>
-    <t>翠湖御苑(挑�{7.2大复式)(带前后240平大花园)真实照片</t>
-  </si>
-  <si>
-    <t>海尚东苑正气一房245万 复旦 楼层好 房东诚心出售</t>
-  </si>
-  <si>
-    <t>徐家汇北面淮海路 交通大学隔壁 名人故居地段 闹中取静</t>
-  </si>
-  <si>
-    <t>苏河湾塔尖住宅+陆家嘴全景尽在脚底,云顶住宅享受神仙般的日子</t>
-  </si>
-  <si>
-    <t>独栋别墅,仅需300万送200平花园,送大露台,自带人工湖</t>
-  </si>
-  <si>
-    <t>又少了20万 8号线 南北通透 精装修 家具家电全送 急售</t>
-  </si>
-  <si>
-    <t>低于市场价30万 置换急售 豪华装修 电梯两房 首付多价格可谈!</t>
-  </si>
-  <si>
-    <t>徐家汇,电梯双南两房,高区视野,一览无余,看房方便。</t>
-  </si>
-  <si>
-    <t>新挂牌 急降15万 小两房 精装修 可做阁楼 一梯两户 近</t>
-  </si>
-  <si>
-    <t>徐汇,位置,精装南北通透,全南户型,看中可谈,急售!</t>
-  </si>
-  <si>
-    <t>徐汇,高区景观,全新装修,铂金地段,房东置换急售,</t>
-  </si>
-  <si>
-    <t>位置 大两房 全南户型,出门3.4.11号,送固定车位</t>
-  </si>
-  <si>
-    <t>小高层带电梯,南北通两房,婚房装修,首付五成降20万,送车位</t>
-  </si>
-  <si>
-    <t>5楼+电梯房+采光好+大1房+精装+宝龙广场+彭镇外国语</t>
-  </si>
-  <si>
-    <t>使用300平+联排别墅+边套+上海东站+送阁楼+送地下室+送80平花园</t>
-  </si>
-  <si>
-    <t>6楼+带阁楼+两房+南北通透+纯毛坯+近宝龙广场+临港外国语学</t>
-  </si>
-  <si>
-    <t>13楼+大三房+采光+精装修+环境优美+物业好+宝龙广场</t>
-  </si>
-  <si>
-    <t>5楼+120平+大三房+南北通透+采光好+精装修+看房方便</t>
-  </si>
-  <si>
-    <t>附5平米两个天井 附属 华夏西校 近</t>
-  </si>
-  <si>
-    <t>房东因工作变动 直降45万急售 前年精装修 送车位</t>
-  </si>
-  <si>
-    <t>秋月二期一梯两户 两南一北板式三房 70万豪装全送,全天采光</t>
-  </si>
-  <si>
-    <t>小区景观复式房,送产权车位,高区景观,低于市场价,!</t>
-  </si>
-  <si>
-    <t>上海后花园 启东高品质小区 现房5800 19号延伸线</t>
-  </si>
-  <si>
-    <t>首付二十万,可用上海公积金!能租一千五,海景度假养老就在恒大</t>
+    <t>288</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>周边不会再有的价格,双南全明,轨交6号线200米,满五年</t>
+  </si>
+  <si>
+    <t>低于市场价50万,景观大三房,6号线,可出租1万元每月</t>
+  </si>
+  <si>
+    <t>直降30万,稀有带阁楼35,总使用面积100,近6号</t>
+  </si>
+  <si>
+    <t>精装三房 全南户型 南北通透 三天井 己搭好 业主置换急售</t>
+  </si>
+  <si>
+    <t>低于市场价20万,95年房子周边不会再有的价格,近和文峰</t>
+  </si>
+  <si>
+    <t>莱阳北小区满五 精装修45.75平米200万 低于市场30万</t>
+  </si>
+  <si>
+    <t>精装修送车位带地暖 满五年税少 业主出国急卖 有钥匙 随时看房</t>
+  </si>
+  <si>
+    <t>精装一房出售。房东急售,不靠马路,钥匙房,看房随时,价格可谈</t>
+  </si>
+  <si>
+    <t>新挂牌小两房,南北通透,有钥匙,精装全明送家电,随时看房</t>
+  </si>
+  <si>
+    <t>新出名墅联排边套,花园150平,209+100平,1000万急卖。</t>
+  </si>
+  <si>
+    <t>新上房源.动迁满五,现急出售,价格低于市场价20万。有钥匙.</t>
+  </si>
+  <si>
+    <t>原始动迁房,,看房方便,满五税少, 精装全配.随时看房..</t>
+  </si>
+  <si>
+    <t>房东现置换,因房屋产权人要出国,急售,本周必卖。。。</t>
+  </si>
+  <si>
+    <t>小区属于商业小区,交通,购物,就餐,方便。小孩方便。。。</t>
+  </si>
+  <si>
+    <t>这样的价钱就一套。就一套。可贷款。诚心出售。看房方便</t>
+  </si>
+  <si>
+    <t>顶楼带阁楼,房东急卖,接受置换,阁楼40平,难得的好房子。</t>
+  </si>
+  <si>
+    <t>低价大户型两房,紧靠8号线,景观楼层,钥匙在手,房子空关.</t>
+  </si>
+  <si>
+    <t>低价小户型一房,紧靠8号线,景观楼层,钥匙在手,</t>
+  </si>
+  <si>
+    <t>水语人家 新挂牌 有钥匙 精装修 房东忍痛割爱急售 。。。</t>
+  </si>
+  <si>
+    <t>瑞和新苑 新挂牌 房东在我们店定了房子,现在急卖 急售</t>
+  </si>
+  <si>
+    <t>环境优美 商圈成熟 品质小区 房东置换 诚心出售 南北通,全明户</t>
+  </si>
+  <si>
+    <t>户型正气,南北通透 8 中间楼层 房东置换 诚心出售</t>
+  </si>
+  <si>
+    <t>南北通透,全明户型,一梯一户,税费少,低市场价,业主诚心卖</t>
+  </si>
+  <si>
+    <t>新上盘,今天必卖,好房子不等人,此价格就这一间,赶快行动</t>
+  </si>
+  <si>
+    <t>抄底总价 交通便利 繁华路段 配套成熟 正常首付 看房随时</t>
+  </si>
+  <si>
+    <t>低价小户型一房,紧靠8号线,景观楼层,钥匙在手, 秒房方便</t>
+  </si>
+  <si>
+    <t>水语人家,房子满五,产权清晰,没有带款,有钥匙。。。</t>
+  </si>
+  <si>
+    <t>新出一房,虹浦新城,总高14的10.现在开始出售,本周必秒。</t>
+  </si>
+  <si>
+    <t>价格优惠,房型大气,通风好,采光好,地段繁华,房东善良</t>
   </si>
 </sst>
 </file>
@@ -579,7 +564,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -590,7 +575,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -601,7 +586,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -612,7 +597,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -623,7 +608,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -631,10 +616,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -642,10 +627,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -653,10 +638,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -664,10 +649,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -675,10 +660,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -686,10 +671,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -697,10 +682,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -708,10 +693,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -719,10 +704,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -730,10 +715,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -741,10 +726,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -752,10 +737,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -763,10 +748,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -774,10 +759,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -785,10 +770,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -796,10 +781,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -807,10 +792,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -818,10 +803,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -829,10 +814,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -840,10 +825,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -851,10 +836,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -862,10 +847,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -873,10 +858,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -884,10 +869,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -895,10 +880,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
